--- a/updated_timeline.xlsx
+++ b/updated_timeline.xlsx
@@ -452,6 +452,9 @@
       <c r="D3" t="str">
         <v>1910-1915_-_The_Engineering_Corner.jpg</v>
       </c>
+      <c r="E3" t="str">
+        <v>https://res.cloudinary.com/dsqi5touf/image/upload/v1737060927/1910-1915_-_The_Engineering_Corner_lafzrp.jpg</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -743,6 +746,9 @@
       <c r="D25" t="str">
         <v>1939_-_Aviation_and_aeronautical_engineering.jpg</v>
       </c>
+      <c r="E25" t="str">
+        <v>https://res.cloudinary.com/dsqi5touf/image/upload/v1737060927/1939_-_Aviation_and_aeronautical_engineering_bwguek.jpg</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -792,6 +798,9 @@
       </c>
       <c r="D29" t="str">
         <v>1944_-_Army_Specialized_Training_Program_1.jpg</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://res.cloudinary.com/dsqi5touf/image/upload/v1737060927/1944_-_Army_Specialized_Training_Program_1_tsurqu.jpg</v>
       </c>
     </row>
     <row r="30">
@@ -841,6 +850,9 @@
       <c r="D31" t="str">
         <v>1944 - Stanford Engineering's third Dean.jpg</v>
       </c>
+      <c r="E31" t="str">
+        <v>https://res.cloudinary.com/dsqi5touf/image/upload/v1737060927/1944_-_Stanford_Engineering_s_third_Dean_leujr9.jpg</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -936,6 +948,9 @@
       <c r="D38" t="str">
         <v>stephen-p-timoshenko.png</v>
       </c>
+      <c r="E38" t="str">
+        <v>https://res.cloudinary.com/dsqi5touf/image/upload/v1738861405/stephen-p-timoshenko_rr0uke.jpg</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -950,6 +965,9 @@
       <c r="D39" t="str">
         <v>prof-edward-2.png</v>
       </c>
+      <c r="E39" t="str">
+        <v>https://res.cloudinary.com/dsqi5touf/image/upload/v1738861406/prof-edward-2_xecpct.jpg</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -963,6 +981,9 @@
       </c>
       <c r="D40" t="str">
         <v>prof-edward-1.png</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://res.cloudinary.com/dsqi5touf/image/upload/v1738861405/prof-edward-1_cfwklw.jpg</v>
       </c>
     </row>
     <row r="41">
